--- a/data/trans_orig/IQ21C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IQ21C-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F45AF60-C2A1-4E20-B3DA-F46A3493CA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95A61B61-627B-4A6F-9292-9A8F12234B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{046DAA9C-46B9-4798-9B51-290D2D23A4C7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EDB3098B-8ADE-415C-9C59-FB529AF584FA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2932" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2936" uniqueCount="221">
   <si>
     <t>Menores según del número de meses que estuvieron esperando en la lista de espera para ser ingresados. en 2007 (Tasa respuesta: 0,48%)</t>
   </si>
@@ -116,7 +116,7 @@
     <t>27,03%</t>
   </si>
   <si>
-    <t>79,3%</t>
+    <t>83,68%</t>
   </si>
   <si>
     <t>48,59%</t>
@@ -125,9 +125,6 @@
     <t>25,54%</t>
   </si>
   <si>
-    <t>92,2%</t>
-  </si>
-  <si>
     <t>43,07%</t>
   </si>
   <si>
@@ -167,55 +164,58 @@
     <t>16,53%</t>
   </si>
   <si>
-    <t>66,83%</t>
+    <t>66,6%</t>
   </si>
   <si>
     <t>10,29%</t>
   </si>
   <si>
-    <t>41,24%</t>
+    <t>42,94%</t>
   </si>
   <si>
     <t>33,48%</t>
   </si>
   <si>
-    <t>83,13%</t>
+    <t>83,54%</t>
   </si>
   <si>
     <t>28,85%</t>
   </si>
   <si>
+    <t>80,23%</t>
+  </si>
+  <si>
     <t>31,73%</t>
   </si>
   <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
   </si>
   <si>
     <t>17,67%</t>
   </si>
   <si>
-    <t>68,9%</t>
+    <t>67,81%</t>
   </si>
   <si>
     <t>10,99%</t>
   </si>
   <si>
-    <t>52,44%</t>
+    <t>52,79%</t>
   </si>
   <si>
     <t>15,11%</t>
   </si>
   <si>
-    <t>64,8%</t>
+    <t>64,01%</t>
   </si>
   <si>
     <t>9,4%</t>
   </si>
   <si>
-    <t>44,26%</t>
+    <t>39,26%</t>
   </si>
   <si>
     <t>47,8%</t>
@@ -224,19 +224,19 @@
     <t>18,06%</t>
   </si>
   <si>
-    <t>49,98%</t>
+    <t>56,33%</t>
   </si>
   <si>
     <t>17,21%</t>
   </si>
   <si>
-    <t>68,32%</t>
+    <t>69,49%</t>
   </si>
   <si>
     <t>10,71%</t>
   </si>
   <si>
-    <t>53,3%</t>
+    <t>45,42%</t>
   </si>
   <si>
     <t>23,34%</t>
@@ -248,7 +248,10 @@
     <t>8,82%</t>
   </si>
   <si>
-    <t>37,09%</t>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
     <t>Menores según del número de meses que estuvieron esperando en la lista de espera para ser ingresados. en 2012 (Tasa respuesta: 0,67%)</t>
@@ -263,7 +266,7 @@
     <t>20,55%</t>
   </si>
   <si>
-    <t>80,5%</t>
+    <t>64,88%</t>
   </si>
   <si>
     <t>48,06%</t>
@@ -272,7 +275,7 @@
     <t>19,02%</t>
   </si>
   <si>
-    <t>78,87%</t>
+    <t>79,21%</t>
   </si>
   <si>
     <t>32,49%</t>
@@ -281,7 +284,7 @@
     <t>19,64%</t>
   </si>
   <si>
-    <t>79,35%</t>
+    <t>79,26%</t>
   </si>
   <si>
     <t>67,51%</t>
@@ -290,7 +293,7 @@
     <t>40,8%</t>
   </si>
   <si>
-    <t>81,43%</t>
+    <t>81,27%</t>
   </si>
   <si>
     <t>34,64%</t>
@@ -305,7 +308,7 @@
     <t>25,35%</t>
   </si>
   <si>
-    <t>84,79%</t>
+    <t>84,61%</t>
   </si>
   <si>
     <t>66,37%</t>
@@ -314,7 +317,7 @@
     <t>36,17%</t>
   </si>
   <si>
-    <t>79,79%</t>
+    <t>80,1%</t>
   </si>
   <si>
     <t>33,63%</t>
@@ -326,340 +329,337 @@
     <t>38,48%</t>
   </si>
   <si>
-    <t>81,64%</t>
+    <t>81,83%</t>
   </si>
   <si>
     <t>11,17%</t>
   </si>
   <si>
-    <t>48,36%</t>
+    <t>45,23%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>28,99%</t>
+    <t>35,72%</t>
   </si>
   <si>
     <t>9,91%</t>
   </si>
   <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>Menores según del número de meses que estuvieron esperando en la lista de espera para ser ingresados. en 2015 (Tasa respuesta: 0,61%)</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
     <t>41,5%</t>
   </si>
   <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>Menores según del número de meses que estuvieron esperando en la lista de espera para ser ingresados. en 2015 (Tasa respuesta: 0,61%)</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
     <t>12,64%</t>
   </si>
   <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
   </si>
   <si>
     <t>16,54%</t>
   </si>
   <si>
-    <t>66,82%</t>
+    <t>75,59%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>38,17%</t>
+    <t>38,46%</t>
   </si>
   <si>
     <t>16,57%</t>
   </si>
   <si>
-    <t>62,49%</t>
+    <t>63,01%</t>
   </si>
   <si>
     <t>8,63%</t>
   </si>
   <si>
-    <t>40,37%</t>
+    <t>35,03%</t>
   </si>
   <si>
     <t>15,25%</t>
   </si>
   <si>
-    <t>69,86%</t>
+    <t>61,75%</t>
   </si>
   <si>
     <t>11,22%</t>
   </si>
   <si>
-    <t>42,35%</t>
+    <t>51,45%</t>
   </si>
   <si>
     <t>13,15%</t>
   </si>
   <si>
-    <t>43,15%</t>
+    <t>39,44%</t>
   </si>
   <si>
     <t>14,77%</t>
   </si>
   <si>
-    <t>60,94%</t>
+    <t>60,91%</t>
   </si>
   <si>
     <t>7,69%</t>
   </si>
   <si>
-    <t>40,59%</t>
+    <t>39,93%</t>
   </si>
   <si>
     <t>29,96%</t>
   </si>
   <si>
-    <t>80,22%</t>
+    <t>81,05%</t>
   </si>
   <si>
     <t>28,91%</t>
   </si>
   <si>
-    <t>72,56%</t>
+    <t>73,39%</t>
   </si>
   <si>
     <t>29,41%</t>
   </si>
   <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
   </si>
   <si>
     <t>17,97%</t>
   </si>
   <si>
-    <t>69,19%</t>
+    <t>71,24%</t>
   </si>
   <si>
     <t>8,61%</t>
   </si>
   <si>
-    <t>42,42%</t>
+    <t>41,02%</t>
   </si>
   <si>
     <t>Menores según del número de meses que estuvieron esperando en la lista de espera para ser ingresados. en 2023 (Tasa respuesta: 0,26%)</t>
@@ -683,7 +683,7 @@
     <t>15,21%</t>
   </si>
   <si>
-    <t>73,96%</t>
+    <t>74,0%</t>
   </si>
   <si>
     <t>37,04%</t>
@@ -692,7 +692,7 @@
     <t>44,08%</t>
   </si>
   <si>
-    <t>85,62%</t>
+    <t>85,48%</t>
   </si>
   <si>
     <t>36,67%</t>
@@ -701,7 +701,7 @@
     <t>40,71%</t>
   </si>
   <si>
-    <t>84,32%</t>
+    <t>84,26%</t>
   </si>
 </sst>
 </file>
@@ -712,7 +712,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -808,39 +808,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -892,7 +892,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1003,13 +1003,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1018,6 +1011,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1082,19 +1082,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A0CAF80-1C75-4301-91C0-00A82A76B6B0}">
-  <dimension ref="A1:Q81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883D51DD-5C31-432C-9492-AC4D40CC0558}">
+  <dimension ref="A1:Q82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2760,7 +2780,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,7 +2915,7 @@
         <v>16</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>18</v>
@@ -2907,7 +2927,7 @@
         <v>1181</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>12</v>
@@ -3122,7 +3142,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B43" s="5">
         <v>36</v>
@@ -3761,7 +3781,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B56" s="5">
         <v>36</v>
@@ -3809,7 +3829,7 @@
         <v>13</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -3860,7 +3880,7 @@
         <v>13</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -3911,7 +3931,7 @@
         <v>13</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,7 +3982,7 @@
         <v>13</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,7 +4033,7 @@
         <v>13</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,7 +4078,7 @@
         <v>713</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>12</v>
@@ -4115,7 +4135,7 @@
         <v>13</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,7 +4150,7 @@
         <v>615</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>12</v>
@@ -4160,7 +4180,7 @@
         <v>615</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P63" s="7" t="s">
         <v>12</v>
@@ -4217,7 +4237,7 @@
         <v>13</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,7 +4252,7 @@
         <v>700</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>12</v>
@@ -4262,7 +4282,7 @@
         <v>701</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P65" s="7" t="s">
         <v>12</v>
@@ -4319,7 +4339,7 @@
         <v>13</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4370,7 +4390,7 @@
         <v>13</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -4444,7 +4464,7 @@
         <v>13</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H69" s="7">
         <v>0</v>
@@ -4474,7 +4494,7 @@
         <v>13</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -4495,7 +4515,7 @@
         <v>13</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
@@ -4525,7 +4545,7 @@
         <v>13</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -4546,7 +4566,7 @@
         <v>13</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
@@ -4576,7 +4596,7 @@
         <v>13</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -4591,13 +4611,13 @@
         <v>673</v>
       </c>
       <c r="E72" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
@@ -4621,13 +4641,13 @@
         <v>673</v>
       </c>
       <c r="O72" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P72" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q72" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="P72" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q72" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,7 +4668,7 @@
         <v>13</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
@@ -4678,7 +4698,7 @@
         <v>13</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -4693,13 +4713,13 @@
         <v>1362</v>
       </c>
       <c r="E74" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="H74" s="7">
         <v>1</v>
@@ -4708,13 +4728,13 @@
         <v>712</v>
       </c>
       <c r="J74" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L74" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="K74" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L74" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="M74" s="7">
         <v>3</v>
@@ -4852,7 +4872,7 @@
         <v>13</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H77" s="7">
         <v>2</v>
@@ -4954,7 +4974,7 @@
         <v>13</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H79" s="7">
         <v>1</v>
@@ -5005,7 +5025,7 @@
         <v>13</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H80" s="7">
         <v>0</v>
@@ -5035,7 +5055,7 @@
         <v>13</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -5087,6 +5107,11 @@
       </c>
       <c r="Q81" s="7" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -5107,8 +5132,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA4D9BA-F5B9-49FD-87D7-24735A68D4B4}">
-  <dimension ref="A1:Q81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C21643D-B9EF-4DFE-9B28-412FF916385D}">
+  <dimension ref="A1:Q82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5124,7 +5149,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6478,7 +6503,7 @@
         <v>13</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -6493,7 +6518,7 @@
         <v>13</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6529,7 +6554,7 @@
         <v>13</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -6544,7 +6569,7 @@
         <v>13</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6580,7 +6605,7 @@
         <v>13</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -6595,7 +6620,7 @@
         <v>13</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6631,7 +6656,7 @@
         <v>13</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -6646,7 +6671,7 @@
         <v>13</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,7 +6686,7 @@
         <v>675</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>12</v>
@@ -6682,7 +6707,7 @@
         <v>13</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -6691,13 +6716,13 @@
         <v>675</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,7 +6758,7 @@
         <v>13</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -6748,7 +6773,7 @@
         <v>13</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6763,7 +6788,7 @@
         <v>625</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>12</v>
@@ -6784,7 +6809,7 @@
         <v>13</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -6793,13 +6818,13 @@
         <v>625</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6835,7 +6860,7 @@
         <v>13</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -6850,7 +6875,7 @@
         <v>13</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6886,7 +6911,7 @@
         <v>13</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -6901,7 +6926,7 @@
         <v>13</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6931,7 +6956,7 @@
         <v>645</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>12</v>
@@ -6946,13 +6971,13 @@
         <v>645</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6982,7 +7007,7 @@
         <v>1341</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>12</v>
@@ -6997,13 +7022,13 @@
         <v>1341</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7039,7 +7064,7 @@
         <v>13</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -7054,7 +7079,7 @@
         <v>13</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7110,7 +7135,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B43" s="5">
         <v>36</v>
@@ -7122,7 +7147,7 @@
         <v>654</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>12</v>
@@ -7150,7 +7175,7 @@
         <v>654</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>12</v>
@@ -7171,7 +7196,7 @@
         <v>580</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>12</v>
@@ -7199,7 +7224,7 @@
         <v>580</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>12</v>
@@ -7226,7 +7251,7 @@
         <v>13</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -7254,7 +7279,7 @@
         <v>13</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7275,7 +7300,7 @@
         <v>13</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -7303,7 +7328,7 @@
         <v>13</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7324,7 +7349,7 @@
         <v>13</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -7352,7 +7377,7 @@
         <v>13</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7373,7 +7398,7 @@
         <v>13</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -7401,7 +7426,7 @@
         <v>13</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7422,7 +7447,7 @@
         <v>13</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -7450,7 +7475,7 @@
         <v>13</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7471,7 +7496,7 @@
         <v>13</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -7499,7 +7524,7 @@
         <v>13</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7520,7 +7545,7 @@
         <v>13</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -7548,7 +7573,7 @@
         <v>13</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -7563,7 +7588,7 @@
         <v>654</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>12</v>
@@ -7591,7 +7616,7 @@
         <v>654</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>12</v>
@@ -7618,7 +7643,7 @@
         <v>13</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -7646,7 +7671,7 @@
         <v>13</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -7667,7 +7692,7 @@
         <v>13</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -7695,7 +7720,7 @@
         <v>13</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -7749,7 +7774,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B56" s="5">
         <v>36</v>
@@ -7767,7 +7792,7 @@
         <v>13</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -7797,7 +7822,7 @@
         <v>13</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -7818,7 +7843,7 @@
         <v>13</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
@@ -7848,7 +7873,7 @@
         <v>13</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -7869,7 +7894,7 @@
         <v>13</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
@@ -7899,7 +7924,7 @@
         <v>13</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -7920,7 +7945,7 @@
         <v>13</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
@@ -7950,7 +7975,7 @@
         <v>13</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -7971,7 +7996,7 @@
         <v>13</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H60" s="7">
         <v>1</v>
@@ -7980,7 +8005,7 @@
         <v>923</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>12</v>
@@ -7995,13 +8020,13 @@
         <v>923</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P60" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -8016,7 +8041,7 @@
         <v>1317</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>12</v>
@@ -8046,13 +8071,13 @@
         <v>1317</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -8073,7 +8098,7 @@
         <v>13</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -8103,7 +8128,7 @@
         <v>13</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -8124,7 +8149,7 @@
         <v>13</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
@@ -8154,7 +8179,7 @@
         <v>13</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -8175,7 +8200,7 @@
         <v>13</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
@@ -8205,7 +8230,7 @@
         <v>13</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -8226,7 +8251,7 @@
         <v>13</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -8256,7 +8281,7 @@
         <v>13</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -8277,7 +8302,7 @@
         <v>13</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H66" s="7">
         <v>0</v>
@@ -8307,7 +8332,7 @@
         <v>13</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -8322,7 +8347,7 @@
         <v>667</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>12</v>
@@ -8337,7 +8362,7 @@
         <v>734</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>12</v>
@@ -8352,13 +8377,13 @@
         <v>1401</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P67" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -8426,13 +8451,13 @@
         <v>654</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H69" s="7">
         <v>0</v>
@@ -8447,7 +8472,7 @@
         <v>13</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M69" s="7">
         <v>1</v>
@@ -8456,13 +8481,13 @@
         <v>654</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P69" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -8477,13 +8502,13 @@
         <v>580</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
@@ -8498,7 +8523,7 @@
         <v>13</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M70" s="7">
         <v>1</v>
@@ -8507,13 +8532,13 @@
         <v>580</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P70" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -8534,7 +8559,7 @@
         <v>13</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
@@ -8549,7 +8574,7 @@
         <v>13</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M71" s="7">
         <v>0</v>
@@ -8564,7 +8589,7 @@
         <v>13</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -8585,7 +8610,7 @@
         <v>13</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
@@ -8600,7 +8625,7 @@
         <v>13</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M72" s="7">
         <v>0</v>
@@ -8615,7 +8640,7 @@
         <v>13</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -8630,13 +8655,13 @@
         <v>675</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H73" s="7">
         <v>1</v>
@@ -8645,13 +8670,13 @@
         <v>923</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K73" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M73" s="7">
         <v>2</v>
@@ -8660,13 +8685,13 @@
         <v>1598</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P73" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -8681,13 +8706,13 @@
         <v>2000</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H74" s="7">
         <v>0</v>
@@ -8702,7 +8727,7 @@
         <v>13</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M74" s="7">
         <v>3</v>
@@ -8711,13 +8736,13 @@
         <v>1999</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -8732,13 +8757,13 @@
         <v>625</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H75" s="7">
         <v>0</v>
@@ -8753,7 +8778,7 @@
         <v>13</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M75" s="7">
         <v>1</v>
@@ -8762,13 +8787,13 @@
         <v>625</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P75" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -8789,7 +8814,7 @@
         <v>13</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H76" s="7">
         <v>0</v>
@@ -8804,7 +8829,7 @@
         <v>13</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M76" s="7">
         <v>0</v>
@@ -8819,7 +8844,7 @@
         <v>13</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -8840,7 +8865,7 @@
         <v>13</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H77" s="7">
         <v>0</v>
@@ -8855,7 +8880,7 @@
         <v>13</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M77" s="7">
         <v>0</v>
@@ -8870,7 +8895,7 @@
         <v>13</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -8885,13 +8910,13 @@
         <v>654</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H78" s="7">
         <v>1</v>
@@ -8900,13 +8925,13 @@
         <v>645</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K78" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M78" s="7">
         <v>2</v>
@@ -8915,13 +8940,13 @@
         <v>1299</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P78" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -8942,7 +8967,7 @@
         <v>13</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H79" s="7">
         <v>2</v>
@@ -8951,13 +8976,13 @@
         <v>1341</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K79" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M79" s="7">
         <v>2</v>
@@ -8966,13 +8991,13 @@
         <v>1341</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P79" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>129</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -8987,13 +9012,13 @@
         <v>667</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H80" s="7">
         <v>1</v>
@@ -9002,13 +9027,13 @@
         <v>734</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K80" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="M80" s="7">
         <v>2</v>
@@ -9017,13 +9042,13 @@
         <v>1401</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P80" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -9075,6 +9100,11 @@
       </c>
       <c r="Q81" s="7" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -9095,8 +9125,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD2CC1B-9BCF-4554-92F4-A2B51AB8177B}">
-  <dimension ref="A1:Q81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5910D32-50E6-41D2-906B-08E749E85EFF}">
+  <dimension ref="A1:Q82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -9112,7 +9142,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -10002,7 +10032,7 @@
         <v>726</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>12</v>
@@ -10030,7 +10060,7 @@
         <v>726</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>12</v>
@@ -10296,7 +10326,7 @@
         <v>768</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>12</v>
@@ -10324,7 +10354,7 @@
         <v>768</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>12</v>
@@ -10481,7 +10511,7 @@
         <v>13</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10532,7 +10562,7 @@
         <v>13</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10562,13 +10592,13 @@
         <v>759</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -10577,13 +10607,13 @@
         <v>759</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10613,13 +10643,13 @@
         <v>604</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
@@ -10628,13 +10658,13 @@
         <v>604</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10685,7 +10715,7 @@
         <v>13</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10736,7 +10766,7 @@
         <v>13</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10787,7 +10817,7 @@
         <v>13</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10838,7 +10868,7 @@
         <v>13</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10868,13 +10898,13 @@
         <v>536</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -10883,13 +10913,13 @@
         <v>536</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10940,7 +10970,7 @@
         <v>13</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -10970,13 +11000,13 @@
         <v>676</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -10985,13 +11015,13 @@
         <v>676</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -11036,13 +11066,13 @@
         <v>790</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -11098,7 +11128,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B43" s="5">
         <v>36</v>
@@ -11159,7 +11189,7 @@
         <v>891</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>12</v>
@@ -11187,7 +11217,7 @@
         <v>891</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>12</v>
@@ -11600,7 +11630,7 @@
         <v>549</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>12</v>
@@ -11628,7 +11658,7 @@
         <v>549</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>12</v>
@@ -11737,7 +11767,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B56" s="5">
         <v>36</v>
@@ -11770,7 +11800,7 @@
         <v>13</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M56" s="7">
         <v>0</v>
@@ -11821,7 +11851,7 @@
         <v>13</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M57" s="7">
         <v>0</v>
@@ -11872,7 +11902,7 @@
         <v>13</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M58" s="7">
         <v>0</v>
@@ -11923,7 +11953,7 @@
         <v>13</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M59" s="7">
         <v>0</v>
@@ -11974,7 +12004,7 @@
         <v>13</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M60" s="7">
         <v>0</v>
@@ -12019,7 +12049,7 @@
         <v>792</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>12</v>
@@ -12034,13 +12064,13 @@
         <v>792</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -12076,7 +12106,7 @@
         <v>13</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
@@ -12127,7 +12157,7 @@
         <v>13</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M63" s="7">
         <v>0</v>
@@ -12178,7 +12208,7 @@
         <v>13</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M64" s="7">
         <v>1</v>
@@ -12187,13 +12217,13 @@
         <v>670</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P64" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>161</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -12244,7 +12274,7 @@
         <v>12</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -12331,7 +12361,7 @@
         <v>13</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M67" s="7">
         <v>0</v>
@@ -12420,7 +12450,7 @@
         <v>13</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H69" s="7">
         <v>0</v>
@@ -12522,7 +12552,7 @@
         <v>13</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H71" s="7">
         <v>1</v>
@@ -12573,7 +12603,7 @@
         <v>13</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H72" s="7">
         <v>1</v>
@@ -12597,7 +12627,7 @@
         <v>604</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P72" s="7" t="s">
         <v>12</v>
@@ -12675,7 +12705,7 @@
         <v>13</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H74" s="7">
         <v>1</v>
@@ -12726,7 +12756,7 @@
         <v>13</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H75" s="7">
         <v>0</v>
@@ -12777,7 +12807,7 @@
         <v>13</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H76" s="7">
         <v>0</v>
@@ -12879,7 +12909,7 @@
         <v>13</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H78" s="7">
         <v>1</v>
@@ -13063,6 +13093,11 @@
       </c>
       <c r="Q81" s="7" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -13083,8 +13118,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3560CC7-360F-4EB9-9595-43837112A826}">
-  <dimension ref="A1:Q81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C6FEB7-B412-4227-AB34-16FF5325010B}">
+  <dimension ref="A1:Q82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -15008,7 +15043,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B43" s="5">
         <v>36</v>
@@ -15647,7 +15682,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B56" s="5">
         <v>36</v>
@@ -16319,7 +16354,7 @@
         <v>13</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M69" s="7">
         <v>0</v>
@@ -16334,7 +16369,7 @@
         <v>13</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -16370,7 +16405,7 @@
         <v>13</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M70" s="7">
         <v>0</v>
@@ -16385,7 +16420,7 @@
         <v>13</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -16421,7 +16456,7 @@
         <v>13</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M71" s="7">
         <v>0</v>
@@ -16436,7 +16471,7 @@
         <v>13</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -16472,7 +16507,7 @@
         <v>13</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M72" s="7">
         <v>0</v>
@@ -16487,7 +16522,7 @@
         <v>13</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -16523,7 +16558,7 @@
         <v>13</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M73" s="7">
         <v>0</v>
@@ -16538,7 +16573,7 @@
         <v>13</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -16625,7 +16660,7 @@
         <v>13</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M75" s="7">
         <v>0</v>
@@ -16640,7 +16675,7 @@
         <v>13</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -16676,7 +16711,7 @@
         <v>13</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M76" s="7">
         <v>0</v>
@@ -16691,7 +16726,7 @@
         <v>13</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -16778,7 +16813,7 @@
         <v>13</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M78" s="7">
         <v>0</v>
@@ -16793,7 +16828,7 @@
         <v>13</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -16880,7 +16915,7 @@
         <v>13</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M80" s="7">
         <v>0</v>
@@ -16895,7 +16930,7 @@
         <v>13</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -16947,6 +16982,11 @@
       </c>
       <c r="Q81" s="7" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IQ21C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IQ21C-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95A61B61-627B-4A6F-9292-9A8F12234B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF17972C-7FE6-4115-8232-9285C7AB72FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EDB3098B-8ADE-415C-9C59-FB529AF584FA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E5602792-015A-4C28-8B3C-F88DECDD894A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2936" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2936" uniqueCount="224">
   <si>
     <t>Menores según del número de meses que estuvieron esperando en la lista de espera para ser ingresados. en 2007 (Tasa respuesta: 0,48%)</t>
   </si>
@@ -68,13 +68,13 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>—%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -104,7 +104,7 @@
     <t>44,51%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -116,7 +116,7 @@
     <t>27,03%</t>
   </si>
   <si>
-    <t>83,68%</t>
+    <t>79,3%</t>
   </si>
   <si>
     <t>48,59%</t>
@@ -131,7 +131,7 @@
     <t>47,43%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -164,19 +164,19 @@
     <t>16,53%</t>
   </si>
   <si>
-    <t>66,6%</t>
+    <t>70,28%</t>
   </si>
   <si>
     <t>10,29%</t>
   </si>
   <si>
-    <t>42,94%</t>
+    <t>45,55%</t>
   </si>
   <si>
     <t>33,48%</t>
   </si>
   <si>
-    <t>83,54%</t>
+    <t>83,6%</t>
   </si>
   <si>
     <t>28,85%</t>
@@ -188,34 +188,34 @@
     <t>31,73%</t>
   </si>
   <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
   </si>
   <si>
     <t>17,67%</t>
   </si>
   <si>
-    <t>67,81%</t>
+    <t>67,77%</t>
   </si>
   <si>
     <t>10,99%</t>
   </si>
   <si>
-    <t>52,79%</t>
+    <t>48,6%</t>
   </si>
   <si>
     <t>15,11%</t>
   </si>
   <si>
-    <t>64,01%</t>
+    <t>63,4%</t>
   </si>
   <si>
     <t>9,4%</t>
   </si>
   <si>
-    <t>39,26%</t>
+    <t>40,52%</t>
   </si>
   <si>
     <t>47,8%</t>
@@ -224,31 +224,31 @@
     <t>18,06%</t>
   </si>
   <si>
-    <t>56,33%</t>
+    <t>56,75%</t>
   </si>
   <si>
     <t>17,21%</t>
   </si>
   <si>
-    <t>69,49%</t>
+    <t>68,17%</t>
   </si>
   <si>
     <t>10,71%</t>
   </si>
   <si>
-    <t>45,42%</t>
+    <t>51,88%</t>
   </si>
   <si>
     <t>23,34%</t>
   </si>
   <si>
-    <t>76,65%</t>
+    <t>79,56%</t>
   </si>
   <si>
     <t>8,82%</t>
   </si>
   <si>
-    <t>41,94%</t>
+    <t>38,58%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -266,7 +266,7 @@
     <t>20,55%</t>
   </si>
   <si>
-    <t>64,88%</t>
+    <t>80,72%</t>
   </si>
   <si>
     <t>48,06%</t>
@@ -275,7 +275,7 @@
     <t>19,02%</t>
   </si>
   <si>
-    <t>79,21%</t>
+    <t>78,73%</t>
   </si>
   <si>
     <t>32,49%</t>
@@ -284,7 +284,7 @@
     <t>19,64%</t>
   </si>
   <si>
-    <t>79,26%</t>
+    <t>80,51%</t>
   </si>
   <si>
     <t>67,51%</t>
@@ -317,7 +317,7 @@
     <t>36,17%</t>
   </si>
   <si>
-    <t>80,1%</t>
+    <t>79,79%</t>
   </si>
   <si>
     <t>33,63%</t>
@@ -329,31 +329,31 @@
     <t>38,48%</t>
   </si>
   <si>
-    <t>81,83%</t>
+    <t>81,98%</t>
   </si>
   <si>
     <t>11,17%</t>
   </si>
   <si>
-    <t>45,23%</t>
+    <t>54,83%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>35,72%</t>
+    <t>34,52%</t>
   </si>
   <si>
     <t>9,91%</t>
   </si>
   <si>
-    <t>52,28%</t>
+    <t>41,71%</t>
   </si>
   <si>
     <t>6,11%</t>
   </si>
   <si>
-    <t>26,12%</t>
+    <t>32,73%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -365,19 +365,19 @@
     <t>11,54%</t>
   </si>
   <si>
-    <t>45,88%</t>
+    <t>45,96%</t>
   </si>
   <si>
     <t>25,34%</t>
   </si>
   <si>
-    <t>84,35%</t>
+    <t>83,42%</t>
   </si>
   <si>
     <t>16,83%</t>
   </si>
   <si>
-    <t>45,55%</t>
+    <t>48,14%</t>
   </si>
   <si>
     <t>34,15%</t>
@@ -386,127 +386,133 @@
     <t>11,19%</t>
   </si>
   <si>
-    <t>67,83%</t>
+    <t>78,09%</t>
   </si>
   <si>
     <t>21,05%</t>
   </si>
   <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
   </si>
   <si>
     <t>10,67%</t>
   </si>
   <si>
-    <t>45,49%</t>
+    <t>44,78%</t>
   </si>
   <si>
     <t>6,58%</t>
   </si>
   <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
   </si>
   <si>
     <t>17,71%</t>
   </si>
   <si>
-    <t>73,66%</t>
+    <t>79,74%</t>
   </si>
   <si>
     <t>13,68%</t>
   </si>
   <si>
-    <t>40,32%</t>
+    <t>40,13%</t>
   </si>
   <si>
     <t>36,8%</t>
   </si>
   <si>
-    <t>80,75%</t>
+    <t>80,6%</t>
   </si>
   <si>
     <t>14,12%</t>
   </si>
   <si>
+    <t>43,32%</t>
+  </si>
+  <si>
     <t>11,4%</t>
   </si>
   <si>
-    <t>46,18%</t>
+    <t>45,17%</t>
   </si>
   <si>
     <t>20,15%</t>
   </si>
   <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>Menores según del número de meses que estuvieron esperando en la lista de espera para ser ingresados. en 2016 (Tasa respuesta: 0,61%)</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
     <t>79,1%</t>
   </si>
   <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>Menores según del número de meses que estuvieron esperando en la lista de espera para ser ingresados. en 2015 (Tasa respuesta: 0,61%)</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
     <t>20,09%</t>
   </si>
   <si>
-    <t>78,07%</t>
+    <t>80,25%</t>
   </si>
   <si>
     <t>23,47%</t>
   </si>
   <si>
-    <t>81,18%</t>
+    <t>83,29%</t>
   </si>
   <si>
     <t>61,9%</t>
@@ -521,12 +527,15 @@
     <t>27,56%</t>
   </si>
   <si>
-    <t>92,47%</t>
+    <t>78,0%</t>
   </si>
   <si>
     <t>23,32%</t>
   </si>
   <si>
+    <t>74,02%</t>
+  </si>
+  <si>
     <t>32,03%</t>
   </si>
   <si>
@@ -545,121 +554,121 @@
     <t>20,29%</t>
   </si>
   <si>
-    <t>72,02%</t>
+    <t>72,33%</t>
   </si>
   <si>
     <t>9,72%</t>
   </si>
   <si>
-    <t>43,63%</t>
+    <t>38,14%</t>
   </si>
   <si>
     <t>15,89%</t>
   </si>
   <si>
-    <t>60,95%</t>
+    <t>69,35%</t>
   </si>
   <si>
     <t>8,28%</t>
   </si>
   <si>
-    <t>41,5%</t>
+    <t>33,91%</t>
   </si>
   <si>
     <t>12,64%</t>
   </si>
   <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
   </si>
   <si>
     <t>16,54%</t>
   </si>
   <si>
-    <t>75,59%</t>
+    <t>66,62%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>38,46%</t>
+    <t>39,48%</t>
   </si>
   <si>
     <t>16,57%</t>
   </si>
   <si>
-    <t>63,01%</t>
+    <t>62,71%</t>
   </si>
   <si>
     <t>8,63%</t>
   </si>
   <si>
-    <t>35,03%</t>
+    <t>40,77%</t>
   </si>
   <si>
     <t>15,25%</t>
   </si>
   <si>
-    <t>61,75%</t>
+    <t>64,64%</t>
   </si>
   <si>
     <t>11,22%</t>
   </si>
   <si>
-    <t>51,45%</t>
+    <t>51,56%</t>
   </si>
   <si>
     <t>13,15%</t>
   </si>
   <si>
-    <t>39,44%</t>
+    <t>42,49%</t>
   </si>
   <si>
     <t>14,77%</t>
   </si>
   <si>
-    <t>60,91%</t>
+    <t>48,97%</t>
   </si>
   <si>
     <t>7,69%</t>
   </si>
   <si>
-    <t>39,93%</t>
+    <t>32,83%</t>
   </si>
   <si>
     <t>29,96%</t>
   </si>
   <si>
-    <t>81,05%</t>
+    <t>81,63%</t>
   </si>
   <si>
     <t>28,91%</t>
   </si>
   <si>
-    <t>73,39%</t>
+    <t>72,32%</t>
   </si>
   <si>
     <t>29,41%</t>
   </si>
   <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
   </si>
   <si>
     <t>17,97%</t>
   </si>
   <si>
-    <t>71,24%</t>
+    <t>71,0%</t>
   </si>
   <si>
     <t>8,61%</t>
   </si>
   <si>
-    <t>41,02%</t>
+    <t>42,2%</t>
   </si>
   <si>
     <t>Menores según del número de meses que estuvieron esperando en la lista de espera para ser ingresados. en 2023 (Tasa respuesta: 0,26%)</t>
@@ -683,7 +692,7 @@
     <t>15,21%</t>
   </si>
   <si>
-    <t>74,0%</t>
+    <t>73,96%</t>
   </si>
   <si>
     <t>37,04%</t>
@@ -692,7 +701,7 @@
     <t>44,08%</t>
   </si>
   <si>
-    <t>85,48%</t>
+    <t>85,62%</t>
   </si>
   <si>
     <t>36,67%</t>
@@ -701,7 +710,7 @@
     <t>40,71%</t>
   </si>
   <si>
-    <t>84,26%</t>
+    <t>84,32%</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883D51DD-5C31-432C-9492-AC4D40CC0558}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988B1A84-CE0A-4C98-883C-1F95A380CDE0}">
   <dimension ref="A1:Q82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5132,7 +5141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C21643D-B9EF-4DFE-9B28-412FF916385D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E53F14-D563-4DF9-B52D-5A71E0D19C26}">
   <dimension ref="A1:Q82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8997,7 +9006,7 @@
         <v>12</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -9012,13 +9021,13 @@
         <v>667</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H80" s="7">
         <v>1</v>
@@ -9027,13 +9036,13 @@
         <v>734</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K80" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M80" s="7">
         <v>2</v>
@@ -9042,13 +9051,13 @@
         <v>1401</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P80" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -9125,7 +9134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5910D32-50E6-41D2-906B-08E749E85EFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16586D00-ED0D-482F-B717-F8EECDB4961B}">
   <dimension ref="A1:Q82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9142,7 +9151,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -10032,7 +10041,7 @@
         <v>726</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>12</v>
@@ -10060,7 +10069,7 @@
         <v>726</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>12</v>
@@ -10326,7 +10335,7 @@
         <v>768</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>12</v>
@@ -10354,7 +10363,7 @@
         <v>768</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>12</v>
@@ -10592,13 +10601,13 @@
         <v>759</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -10649,7 +10658,7 @@
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
@@ -10658,13 +10667,13 @@
         <v>604</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10898,13 +10907,13 @@
         <v>536</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -10913,13 +10922,13 @@
         <v>536</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -11000,13 +11009,13 @@
         <v>676</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -11015,13 +11024,13 @@
         <v>676</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -11066,13 +11075,13 @@
         <v>790</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -11189,7 +11198,7 @@
         <v>891</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>12</v>
@@ -11217,7 +11226,7 @@
         <v>891</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>12</v>
@@ -11630,7 +11639,7 @@
         <v>549</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>12</v>
@@ -11658,7 +11667,7 @@
         <v>549</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>12</v>
@@ -12049,7 +12058,7 @@
         <v>792</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>12</v>
@@ -12064,13 +12073,13 @@
         <v>792</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -12217,13 +12226,13 @@
         <v>670</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P64" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -12253,7 +12262,7 @@
         <v>706</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>12</v>
@@ -12268,13 +12277,13 @@
         <v>706</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P65" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -12304,7 +12313,7 @@
         <v>706</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K66" s="7" t="s">
         <v>12</v>
@@ -12319,13 +12328,13 @@
         <v>706</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P66" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>164</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -12465,7 +12474,7 @@
         <v>13</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M69" s="7">
         <v>0</v>
@@ -12480,7 +12489,7 @@
         <v>13</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -12495,28 +12504,28 @@
         <v>891</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G70" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H70" s="7">
+        <v>0</v>
+      </c>
+      <c r="I70" s="7">
+        <v>0</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L70" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="H70" s="7">
-        <v>0</v>
-      </c>
-      <c r="I70" s="7">
-        <v>0</v>
-      </c>
-      <c r="J70" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K70" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L70" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M70" s="7">
         <v>1</v>
@@ -12525,13 +12534,13 @@
         <v>891</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="P70" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -12561,13 +12570,13 @@
         <v>759</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K71" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M71" s="7">
         <v>1</v>
@@ -12576,13 +12585,13 @@
         <v>759</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P71" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -12612,13 +12621,13 @@
         <v>604</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K72" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M72" s="7">
         <v>1</v>
@@ -12633,7 +12642,7 @@
         <v>12</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -12648,13 +12657,13 @@
         <v>727</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
@@ -12669,7 +12678,7 @@
         <v>13</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M73" s="7">
         <v>1</v>
@@ -12678,13 +12687,13 @@
         <v>727</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P73" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -12714,13 +12723,13 @@
         <v>792</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K74" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M74" s="7">
         <v>1</v>
@@ -12729,13 +12738,13 @@
         <v>792</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="P74" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -12771,7 +12780,7 @@
         <v>13</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M75" s="7">
         <v>0</v>
@@ -12786,7 +12795,7 @@
         <v>13</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -12822,7 +12831,7 @@
         <v>13</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M76" s="7">
         <v>0</v>
@@ -12837,7 +12846,7 @@
         <v>13</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -12852,13 +12861,13 @@
         <v>670</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H77" s="7">
         <v>1</v>
@@ -12867,13 +12876,13 @@
         <v>536</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K77" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M77" s="7">
         <v>2</v>
@@ -12882,13 +12891,13 @@
         <v>1206</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P77" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -12918,13 +12927,13 @@
         <v>705</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="K78" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M78" s="7">
         <v>1</v>
@@ -12933,13 +12942,13 @@
         <v>705</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P78" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -12954,13 +12963,13 @@
         <v>1316</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H79" s="7">
         <v>2</v>
@@ -12969,13 +12978,13 @@
         <v>1381</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K79" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M79" s="7">
         <v>4</v>
@@ -12984,13 +12993,13 @@
         <v>2697</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -13005,13 +13014,13 @@
         <v>790</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H80" s="7">
         <v>0</v>
@@ -13026,7 +13035,7 @@
         <v>13</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M80" s="7">
         <v>1</v>
@@ -13035,13 +13044,13 @@
         <v>790</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="P80" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -13118,7 +13127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C6FEB7-B412-4227-AB34-16FF5325010B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACEDD20-B20B-44B5-B684-ABC61014B60A}">
   <dimension ref="A1:Q82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13135,7 +13144,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -15460,7 +15469,7 @@
         <v>852</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>12</v>
@@ -15475,7 +15484,7 @@
         <v>852</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>12</v>
@@ -15558,7 +15567,7 @@
         <v>843</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>12</v>
@@ -15573,7 +15582,7 @@
         <v>843</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>12</v>
@@ -16086,7 +16095,7 @@
         <v>900</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>12</v>
@@ -16114,7 +16123,7 @@
         <v>900</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P64" s="7" t="s">
         <v>12</v>
@@ -16184,7 +16193,7 @@
         <v>775</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>12</v>
@@ -16212,7 +16221,7 @@
         <v>775</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="P66" s="7" t="s">
         <v>12</v>
@@ -16603,7 +16612,7 @@
         <v>604</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K74" s="7" t="s">
         <v>12</v>
@@ -16618,13 +16627,13 @@
         <v>605</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P74" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -16741,7 +16750,7 @@
         <v>900</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>12</v>
@@ -16756,7 +16765,7 @@
         <v>852</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K77" s="7" t="s">
         <v>12</v>
@@ -16771,13 +16780,13 @@
         <v>1752</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P77" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -16843,7 +16852,7 @@
         <v>775</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>12</v>
@@ -16858,7 +16867,7 @@
         <v>843</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K79" s="7" t="s">
         <v>12</v>
@@ -16873,13 +16882,13 @@
         <v>1618</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P79" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
